--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/solenne/Desktop/OC - Web développeur/P4_Lachouetteagence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECC3C05-3985-C649-9BF8-73951CE8D8E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E3865E-A071-9346-81FE-F6BEF2BF1D11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="30960" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page d'accueil" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>Catégorie</t>
   </si>
@@ -143,6 +143,27 @@
   </si>
   <si>
     <t>Cours Oc</t>
+  </si>
+  <si>
+    <t>Les images n'ont pas un format adapté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images au mauvais format ralentissent la vitesse de chargement du site pour l'utilisateur </t>
+  </si>
+  <si>
+    <t>Changer le format des images</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>La langue du site internet est défini sur default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas définir la langue du site pose problème pour la lecture via les technologies d'assistance risque </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans le code HTML, définir la langue française pour le site internet </t>
   </si>
 </sst>
 </file>
@@ -183,7 +204,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +215,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -217,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -235,6 +262,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -456,7 +489,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -519,45 +552,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="34">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" s="7" customFormat="1" ht="34">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="34">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" s="7" customFormat="1" ht="34">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="34">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -577,7 +610,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="51">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -597,7 +630,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -656,34 +689,64 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:26" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E11" s="5" t="b">
-        <v>0</v>
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E12" s="5" t="b">
-        <v>0</v>
+      <c r="A12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
@@ -1705,7 +1768,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
@@ -1768,39 +1831,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="34">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" s="7" customFormat="1" ht="34">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="34">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" s="7" customFormat="1" ht="34">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="E5" s="5"/>
+    <row r="5" spans="1:26" ht="34">
+      <c r="A5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:26">
       <c r="E6" s="5"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,16 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/solenne/Desktop/OC - Web développeur/P4_Lachouetteagence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E3865E-A071-9346-81FE-F6BEF2BF1D11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC341B2-D80A-B64D-9C82-D233B4507B67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page d'accueil" sheetId="1" r:id="rId1"/>
-    <sheet name="Page 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Page contact" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgajbA1sRpj4h647px0Becg4xhqcQ=="/>
     </ext>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>Catégorie</t>
   </si>
@@ -164,6 +173,18 @@
   </si>
   <si>
     <t xml:space="preserve">Dans le code HTML, définir la langue française pour le site internet </t>
+  </si>
+  <si>
+    <t>Certains liens n'ont pas de textes visibles</t>
+  </si>
+  <si>
+    <t>Les technologies d'assistance - comme le lecteur - ne pourront pas naviguer correctement sur ces liens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout d'un texte visible pour chaque lien </t>
+  </si>
+  <si>
+    <t>Recommandation Lighthouse</t>
   </si>
 </sst>
 </file>
@@ -488,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -650,7 +671,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="51">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -670,7 +691,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="51">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -710,7 +731,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -749,9 +770,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E13" s="5" t="b">
-        <v>0</v>
+    <row r="13" spans="1:26" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/solenne/Desktop/OC - Web développeur/P4_Lachouetteagence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC341B2-D80A-B64D-9C82-D233B4507B67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8F2532-E688-444C-8DF7-35FFDBB5EF70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page d'accueil" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>Catégorie</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Recommandation Lighthouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failles de sécurité </t>
   </si>
 </sst>
 </file>
@@ -509,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1803,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CDB5FF-5CB2-EF4D-BD1B-9A7B202A0FBA}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
@@ -1918,7 +1921,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="17">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
